--- a/artfynd/A 7732-2021.xlsx
+++ b/artfynd/A 7732-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89585255</v>
+        <v>89585290</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>422268.873820144</v>
+        <v>422382.1566529368</v>
       </c>
       <c r="R2" t="n">
-        <v>6941277.034413425</v>
+        <v>6941443.959308082</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89585290</v>
+        <v>89585234</v>
       </c>
       <c r="B3" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>422382.1566529368</v>
+        <v>422440.1516844163</v>
       </c>
       <c r="R3" t="n">
-        <v>6941443.959308082</v>
+        <v>6941536.143204342</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89585224</v>
+        <v>89585261</v>
       </c>
       <c r="B4" t="n">
-        <v>89356</v>
+        <v>77588</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>864</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>422227.8240813478</v>
+        <v>422513.8717266123</v>
       </c>
       <c r="R4" t="n">
-        <v>6941277.997683762</v>
+        <v>6941570.820536849</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89585286</v>
+        <v>89585255</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>422195.0116517335</v>
+        <v>422268.873820144</v>
       </c>
       <c r="R5" t="n">
-        <v>6941276.003047519</v>
+        <v>6941277.034413425</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89585289</v>
+        <v>89585224</v>
       </c>
       <c r="B6" t="n">
-        <v>77588</v>
+        <v>89356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>864</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>422249.1704919123</v>
+        <v>422227.8240813478</v>
       </c>
       <c r="R6" t="n">
-        <v>6941283.026650068</v>
+        <v>6941277.997683762</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89585233</v>
+        <v>89585286</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>422310.9247597085</v>
+        <v>422195.0116517335</v>
       </c>
       <c r="R7" t="n">
-        <v>6941299.089533247</v>
+        <v>6941276.003047519</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89585234</v>
+        <v>89585289</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,21 +1392,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>422440.1516844163</v>
+        <v>422249.1704919123</v>
       </c>
       <c r="R8" t="n">
-        <v>6941536.143204342</v>
+        <v>6941283.026650068</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89585240</v>
+        <v>89585233</v>
       </c>
       <c r="B9" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,21 +1508,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>422342.0538613191</v>
+        <v>422310.9247597085</v>
       </c>
       <c r="R9" t="n">
-        <v>6941308.037107519</v>
+        <v>6941299.089533247</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89585283</v>
+        <v>89585240</v>
       </c>
       <c r="B10" t="n">
-        <v>78596</v>
+        <v>77588</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,25 +1620,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>422291.9279179227</v>
+        <v>422342.0538613191</v>
       </c>
       <c r="R10" t="n">
-        <v>6941295.848404294</v>
+        <v>6941308.037107519</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89585261</v>
+        <v>89585283</v>
       </c>
       <c r="B11" t="n">
-        <v>77588</v>
+        <v>78596</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>864</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>422513.8717266123</v>
+        <v>422291.9279179227</v>
       </c>
       <c r="R11" t="n">
-        <v>6941570.820536849</v>
+        <v>6941295.848404294</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 7732-2021.xlsx
+++ b/artfynd/A 7732-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89585290</v>
+        <v>89585255</v>
       </c>
       <c r="B2" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>422382.1566529368</v>
+        <v>422268.873820144</v>
       </c>
       <c r="R2" t="n">
-        <v>6941443.959308082</v>
+        <v>6941277.034413425</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89585234</v>
+        <v>89585290</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>422440.1516844163</v>
+        <v>422382.1566529368</v>
       </c>
       <c r="R3" t="n">
-        <v>6941536.143204342</v>
+        <v>6941443.959308082</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89585261</v>
+        <v>89585224</v>
       </c>
       <c r="B4" t="n">
-        <v>77588</v>
+        <v>89356</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>864</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>422513.8717266123</v>
+        <v>422227.8240813478</v>
       </c>
       <c r="R4" t="n">
-        <v>6941570.820536849</v>
+        <v>6941277.997683762</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89585255</v>
+        <v>89585286</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>422268.873820144</v>
+        <v>422195.0116517335</v>
       </c>
       <c r="R5" t="n">
-        <v>6941277.034413425</v>
+        <v>6941276.003047519</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89585224</v>
+        <v>89585289</v>
       </c>
       <c r="B6" t="n">
-        <v>89356</v>
+        <v>77588</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>422227.8240813478</v>
+        <v>422249.1704919123</v>
       </c>
       <c r="R6" t="n">
-        <v>6941277.997683762</v>
+        <v>6941283.026650068</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89585286</v>
+        <v>89585233</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>422195.0116517335</v>
+        <v>422310.9247597085</v>
       </c>
       <c r="R7" t="n">
-        <v>6941276.003047519</v>
+        <v>6941299.089533247</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89585289</v>
+        <v>89585234</v>
       </c>
       <c r="B8" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,21 +1392,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>422249.1704919123</v>
+        <v>422440.1516844163</v>
       </c>
       <c r="R8" t="n">
-        <v>6941283.026650068</v>
+        <v>6941536.143204342</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89585233</v>
+        <v>89585240</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,21 +1508,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>422310.9247597085</v>
+        <v>422342.0538613191</v>
       </c>
       <c r="R9" t="n">
-        <v>6941299.089533247</v>
+        <v>6941308.037107519</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89585240</v>
+        <v>89585283</v>
       </c>
       <c r="B10" t="n">
-        <v>77588</v>
+        <v>78596</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,25 +1620,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>422342.0538613191</v>
+        <v>422291.9279179227</v>
       </c>
       <c r="R10" t="n">
-        <v>6941308.037107519</v>
+        <v>6941295.848404294</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89585283</v>
+        <v>89585261</v>
       </c>
       <c r="B11" t="n">
-        <v>78596</v>
+        <v>77588</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>864</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>422291.9279179227</v>
+        <v>422513.8717266123</v>
       </c>
       <c r="R11" t="n">
-        <v>6941295.848404294</v>
+        <v>6941570.820536849</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
